--- a/version_compatibility/Compatibility Summary.xlsx
+++ b/version_compatibility/Compatibility Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/validation/version_compatibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{A86BADBA-E3D3-0540-92FF-3D0F49636C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{D36C7AA7-DE05-1844-9A83-09D25CEAE952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="6680" windowWidth="42460" windowHeight="17660" xr2:uid="{304F4BEB-B345-284F-90E5-3B53C3058EF7}"/>
+    <workbookView xWindow="5160" yWindow="8120" windowWidth="49840" windowHeight="19800" xr2:uid="{304F4BEB-B345-284F-90E5-3B53C3058EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Issue</t>
   </si>
@@ -269,19 +269,101 @@
         &lt;/Color&gt;
     &lt;/color&gt;
     &lt;color&gt;
-        &lt;Color gml:id="col2" origin="mottle"&gt;
-            &lt;colorName"&gt;white&lt;/colorName&gt;
+        &lt;Color gml:id="col2" origin="carbonate mass"&gt;
+            &lt;colorName&gt;white&lt;/colorName&gt;
             &lt;colorCode codeSpace="Munsell"&gt;N9/&lt;/colorCode&gt;
         &lt;/Color&gt;
     &lt;/color&gt;
 &lt;/Lithology&gt;</t>
+  </si>
+  <si>
+    <t>Substitute ComponentLith for Lithology as child of ComponentLithology/lithology</t>
+  </si>
+  <si>
+    <t>&lt;ComponentLithology gml:id="DGS8685-355-4B99-4927-22FFA"
+    association="disseminated"&gt;
+    &lt;lithology&gt;
+        &lt;ComponentLith&gt;
+            &lt;classificationCode codeSpace="https://diggsml.org/def/codes/DIGGS/0.1/USCSSoilComponents.xml#gravel"&gt;Gravel&lt;/classificationCode&gt;
+            &lt;componentProperties&gt;
+                &lt;ComponentProperties&gt;
+                    &lt;particleAngularity&gt;subrounded&lt;/particleAngularity&gt;
+                    &lt;particleHardness&gt;very hard&lt;/particleHardness&gt;
+                    &lt;particleShape&gt;flat&lt;/particleShape&gt;
+                    &lt;particleSize&gt;fine to medium&lt;/particleSize&gt;
+                &lt;/ComponentProperties&gt;
+            &lt;/componentProperties&gt;
+        &lt;/ComponentLith&gt;
+    &lt;/lithology&gt;
+    &lt;abundancePercent uom="%"&gt;60&lt;/abundancePercent&gt;
+&lt;/ComponentLithology&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ComponentLithology gml:id="DGS8685-355-4B99-4927-22FFA"
+    association="uniformly distributed as a component of the primary lithology"&gt;
+    &lt;lithology&gt;
+        &lt;Lithology gml:id="Lithology_ipw_jkg_f3c"&gt;
+            &lt;classificationCode codeSpace="https://diggsml.org/def/codes/DIGGS/0.1/USCSSoilComponents.xml#gravel"&gt;Gravel&lt;/classificationCode&gt;
+            &lt;fieldProperties&gt;
+                &lt;FieldProperties gml:id="fp"&gt;
+                    &lt;particleAngularity&gt;subrounded&lt;/particleAngularity&gt;
+                    &lt;particleHardness&gt;very hard&lt;/particleHardness&gt;
+                    &lt;particleShape&gt;flat&lt;/particleShape&gt;
+                    &lt;particleSize&gt;fine to medium&lt;/particleSize&gt;
+                &lt;/FieldProperties&gt;
+            &lt;/fieldProperties&gt;
+        &lt;/Lithology&gt;
+    &lt;/lithology&gt;
+    &lt;abundancePercent uom="%"&gt;60&lt;/abundancePercent&gt;
+&lt;/ComponentLithology&gt;</t>
+  </si>
+  <si>
+    <t>ComponentLithology//Lithology
+ComponentLithology/@association</t>
+  </si>
+  <si>
+    <t>The diggs:Lithology object is no longer used for describe the characteristics of a lithology component. A new diggs:ComponentLith object is used in its stead. Enumerated values for @association have changed to simpler phrases.</t>
+  </si>
+  <si>
+    <t>Component Lithology restructuring</t>
+  </si>
+  <si>
+    <t>Constituent observation restructuring</t>
+  </si>
+  <si>
+    <t>ConstituentObservation/@diggs:howDetermined
+Constituent/gml:name</t>
+  </si>
+  <si>
+    <t>Namespace qualified @diggs:howDetermined atribute changed to unqualified @howDetermined. Constituent/gml:name removed</t>
+  </si>
+  <si>
+    <t>Remove nameSpace prefi from howDetermined attribute. Value of gml:name should be moded to codeValue property</t>
+  </si>
+  <si>
+    <t>&lt;ConstituentObservation gml:id="abc" diggs:howDetermined="visual"&gt;
+    &lt;constituent&gt;
+        &lt;Constituent gml:id="const1"&gt;
+            &lt;gml:name&gt;gastropod&lt;/gml:name&gt;
+        &lt;/Constituent&gt;
+    &lt;/constituent&gt;
+&lt;/ConstituentObservation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ConstituentObservation gml:id="abc" howDetermined="visual"&gt;
+    &lt;constituent&gt;
+        &lt;Constituent gml:id="const1"&gt;
+            &lt;codeValue&gt;gastropod&lt;/codeValue&gt;
+        &lt;/Constituent&gt;
+    &lt;/constituent&gt;
+&lt;/ConstituentObservation&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +378,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -313,25 +403,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,210 +780,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95993B7D-8928-1644-AAE9-9E02DA6FA1A6}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="22.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="61.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="59.83203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="372" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="373" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="7" spans="1:6" ht="341" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:6" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{4B342BBF-B0EB-C941-B8B4-3FA18C9FDB80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>